--- a/Lab3/Терешкович Розрахунки Лаб3.xlsx
+++ b/Lab3/Терешкович Розрахунки Лаб3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B99B79-5C7B-4971-B050-44F3A8F4F574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BC8837-42E2-4035-B780-DBB182FC14F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47895" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41085" yWindow="4275" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -325,83 +325,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -685,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,41 +703,41 @@
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:15" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
+      <c r="A3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
@@ -796,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="9">
-        <f t="shared" ref="E7:E10" si="0">B7*G7+C7*H7+D7*I7</f>
+        <f t="shared" ref="E7:E9" si="0">B7*G7+C7*H7+D7*I7</f>
         <v>4</v>
       </c>
       <c r="F7" s="7" t="s">
@@ -896,314 +896,314 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="15"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="9">
         <f>SUM(E6:E10)</f>
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="32" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" spans="1:15" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="28" t="s">
+      <c r="B14" s="29"/>
+      <c r="C14" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
       <c r="F14">
         <v>2</v>
       </c>
       <c r="O14" s="11"/>
     </row>
     <row r="15" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="28" t="s">
+      <c r="B15" s="29"/>
+      <c r="C15" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="26"/>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="22" t="s">
+      <c r="B16" s="29"/>
+      <c r="C16" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="20"/>
       <c r="F16">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="22" t="s">
+      <c r="B17" s="29"/>
+      <c r="C17" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="31" t="s">
+      <c r="B18" s="29"/>
+      <c r="C18" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="31"/>
       <c r="F18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="28" t="s">
+      <c r="B19" s="29"/>
+      <c r="C19" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="30"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="26"/>
       <c r="F19">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="28" t="s">
+      <c r="B20" s="29"/>
+      <c r="C20" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="30"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26"/>
       <c r="F20">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="22" t="s">
+      <c r="B21" s="29"/>
+      <c r="C21" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
       <c r="F21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="22" t="s">
+      <c r="B22" s="29"/>
+      <c r="C22" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="20"/>
       <c r="F22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="22" t="s">
+      <c r="B23" s="29"/>
+      <c r="C23" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="20"/>
       <c r="F23">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="25" t="s">
+      <c r="B24" s="29"/>
+      <c r="C24" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="34"/>
       <c r="F24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="16" t="s">
+      <c r="B25" s="29"/>
+      <c r="C25" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="18"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="31"/>
       <c r="F25">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="16" t="s">
+      <c r="B26" s="29"/>
+      <c r="C26" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="18"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="31"/>
       <c r="F26">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16" t="s">
+      <c r="B27" s="29"/>
+      <c r="C27" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="18"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="31"/>
       <c r="F27">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="16">
+      <c r="B28" s="29"/>
+      <c r="C28" s="35">
         <f>SUM(F14:F27)</f>
-        <v>22</v>
-      </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="18"/>
+        <v>16</v>
+      </c>
+      <c r="D28" s="30"/>
+      <c r="E28" s="31"/>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="21"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="14"/>
     </row>
     <row r="30" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="16">
+      <c r="B30" s="29"/>
+      <c r="C30" s="35">
         <f>(C28*0.01)+0.65</f>
-        <v>0.87</v>
-      </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="18"/>
+        <v>0.81</v>
+      </c>
+      <c r="D30" s="30"/>
+      <c r="E30" s="31"/>
     </row>
     <row r="31" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="16">
+      <c r="B31" s="29"/>
+      <c r="C31" s="35">
         <f>E11*C30</f>
-        <v>19.14</v>
-      </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="18"/>
+        <v>17.82</v>
+      </c>
+      <c r="D31" s="30"/>
+      <c r="E31" s="31"/>
       <c r="M31" s="11"/>
     </row>
     <row r="32" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="16">
+      <c r="B32" s="29"/>
+      <c r="C32" s="35">
         <f>C31*54</f>
-        <v>1033.56</v>
-      </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="18"/>
+        <v>962.28</v>
+      </c>
+      <c r="D32" s="30"/>
+      <c r="E32" s="31"/>
       <c r="M32" s="11"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
       <c r="M33" s="11"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
@@ -1219,47 +1219,6 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="A29:E29"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="A35:B35"/>
@@ -1270,6 +1229,47 @@
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="C33:E33"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
